--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RAG_example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DC9BD2-366D-4E28-A6F5-40311A6571AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E164D12-76DF-4E14-B93C-9080D2B294C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1092" windowWidth="11508" windowHeight="11148" xr2:uid="{2C908D06-51C6-4142-A96C-33B088E9928A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2C908D06-51C6-4142-A96C-33B088E9928A}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>How can I better manage my stock to avoid running out of popular items?</t>
   </si>
@@ -46,13 +46,62 @@
   </si>
   <si>
     <t>Какая сегодня погода в Минске?</t>
+  </si>
+  <si>
+    <t>To better manage your stock and avoid running out of popular items, consider the following strategies based on the inventory management principles presented in the available material:
+1. **Track Inventory Regularly**:
+   - Implement a system to keep accurate records of inventory levels, which can help identify when items are running low and need to be reordered.
+2. **Use ABC Analysis**:
+   - Classify products into categories (A, B, and C) based on their sales volume and significance to your business. Focus more on managing items in category A, which contribute the most to revenue.
+3. **Set Minimum Inventory Levels**:
+   - Establish reorder points to ensure you have sufficient stock on hand before it runs out. Keeping a buffer stock of a few extra units can help mitigate shortages during peak demand.
+4. **Utilize Inventory Management Systems**:
+   - Invest in computer or mobile-based inventory applications that offer real-time tracking and alerts for low stock levels.
+5. **Plan for Demand Forecasting**:
+   - Estimate stock requirements based on previous sales data and potential seasonal fluctuations. Consider creating an annual production plan to align inventory levels with expected sales.
+6. **Rotate Stock Effectively**:
+   - Implement stock rotation methods (FIFO - First In First Out) to ensure older stock is sold first, particularly for perishable items.
+7. **Regularly Count Inventory**:
+   - Perform inventory counts frequently to reconcile physical stock against records, helping to identify discrepancies or trends in sales.
+8. **Communicate with Suppliers**:
+   - Maintain good relationships with suppliers to improve the reliability of deliveries and negotiate favorable terms for restocking.
+By applying these strategies, you can enhance your inventory management practices and significantly reduce the risk of running out of popular items.</t>
+  </si>
+  <si>
+    <t>Here are some effective ways to track inventory without using complicated tools:
+1. **Product Control Cards**: 
+   - Use product control cards for your top-selling items. Each card should include:
+     - Date of inventory change
+     - Quantity received (In)
+     - Quantity sold or given out (Out)
+     - Quantity lost to spoilage or theft (Loss)
+     - Current balance.
+2. **Regular Counting**: 
+   - Conduct regular inventory counts:
+     - At least once a month.
+     - Consider cycle counting, where small amounts of inventory are counted regularly (e.g., two or three products each day).
+     - Adjust your counts based on what is moving in and out.
+3. **Reconciliation of Records**:
+   - Compare physical counts to the recorded data regularly.
+   - Investigate discrepancies and ensure that every loss or gain is accounted for to maintain accuracy in your records.
+4. **Simplified Stock Management Practices**:
+   - Implement stock rotation methods (e.g., FIFO - first in, first out) to manage expiration and spoilage of products.
+5. **Using Free or Trial Inventory Apps**:
+   - Leverage available free or trial applications that assist in tracking inventory without heavy investment in complex systems. These applications typically allow for real-time updates and alerts for low stock.
+By employing these strategies, you can effectively manage your inventory in a straightforward, less complicated manner.</t>
+  </si>
+  <si>
+    <t>ground_truth</t>
+  </si>
+  <si>
+    <t>Вопрос выходит за пределы базы знаний</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +114,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -89,10 +144,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -409,35 +470,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC8CF4E-33CD-474B-81EF-A28892459FB8}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="48.21875" customWidth="1"/>
+    <col min="2" max="2" width="99.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" ht="144" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RAG_example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E164D12-76DF-4E14-B93C-9080D2B294C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7710213E-8F50-42CC-A31F-2348E25503A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2C908D06-51C6-4142-A96C-33B088E9928A}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>questions</t>
   </si>
   <si>
-    <t>Какая сегодня погода в Минске?</t>
-  </si>
-  <si>
     <t>To better manage your stock and avoid running out of popular items, consider the following strategies based on the inventory management principles presented in the available material:
 1. **Track Inventory Regularly**:
    - Implement a system to keep accurate records of inventory levels, which can help identify when items are running low and need to be reordered.
@@ -94,7 +91,10 @@
     <t>ground_truth</t>
   </si>
   <si>
-    <t>Вопрос выходит за пределы базы знаний</t>
+    <t>Whats the weather today in Minsk?</t>
+  </si>
+  <si>
+    <t>The question is outside the knowledge base</t>
   </si>
 </sst>
 </file>
@@ -472,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC8CF4E-33CD-474B-81EF-A28892459FB8}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,7 +487,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
@@ -503,12 +503,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
